--- a/Excel-XLSX/UN-PAK.xlsx
+++ b/Excel-XLSX/UN-PAK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="901">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>1gY5Oy</t>
+    <t>C0D61s</t>
   </si>
   <si>
     <t>1979</t>
@@ -654,13 +654,13 @@
     <t>2023</t>
   </si>
   <si>
-    <t>2079989</t>
-  </si>
-  <si>
-    <t>48705</t>
-  </si>
-  <si>
-    <t>5681</t>
+    <t>1987717</t>
+  </si>
+  <si>
+    <t>61451</t>
+  </si>
+  <si>
+    <t>56797</t>
   </si>
   <si>
     <t>49</t>
@@ -2301,15 +2301,15 @@
     <t>433</t>
   </si>
   <si>
+    <t>435</t>
+  </si>
+  <si>
     <t>Syrian Arab Rep.</t>
   </si>
   <si>
     <t>SYR</t>
   </si>
   <si>
-    <t>435</t>
-  </si>
-  <si>
     <t>436</t>
   </si>
   <si>
@@ -2367,6 +2367,9 @@
     <t>457</t>
   </si>
   <si>
+    <t>458</t>
+  </si>
+  <si>
     <t>United Rep. of Tanzania</t>
   </si>
   <si>
@@ -2376,9 +2379,6 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>458</t>
-  </si>
-  <si>
     <t>459</t>
   </si>
   <si>
@@ -2409,24 +2409,24 @@
     <t>469</t>
   </si>
   <si>
+    <t>470</t>
+  </si>
+  <si>
     <t>Tajikistan</t>
   </si>
   <si>
     <t>TJK</t>
   </si>
   <si>
-    <t>470</t>
-  </si>
-  <si>
     <t>471</t>
   </si>
   <si>
+    <t>472</t>
+  </si>
+  <si>
     <t>556</t>
   </si>
   <si>
-    <t>472</t>
-  </si>
-  <si>
     <t>473</t>
   </si>
   <si>
@@ -2451,15 +2451,15 @@
     <t>480</t>
   </si>
   <si>
+    <t>481</t>
+  </si>
+  <si>
     <t>Tunisia</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>481</t>
-  </si>
-  <si>
     <t>482</t>
   </si>
   <si>
@@ -2472,15 +2472,15 @@
     <t>485</t>
   </si>
   <si>
+    <t>486</t>
+  </si>
+  <si>
     <t>Türkiye</t>
   </si>
   <si>
     <t>TUR</t>
   </si>
   <si>
-    <t>486</t>
-  </si>
-  <si>
     <t>487</t>
   </si>
   <si>
@@ -2550,30 +2550,30 @@
     <t>511</t>
   </si>
   <si>
+    <t>512</t>
+  </si>
+  <si>
     <t>Uganda</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>512</t>
-  </si>
-  <si>
     <t>513</t>
   </si>
   <si>
     <t>514</t>
   </si>
   <si>
+    <t>515</t>
+  </si>
+  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
     <t>UZB</t>
   </si>
   <si>
-    <t>515</t>
-  </si>
-  <si>
     <t>518</t>
   </si>
   <si>
@@ -2634,6 +2634,9 @@
     <t>538</t>
   </si>
   <si>
+    <t>539</t>
+  </si>
+  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
@@ -2643,9 +2646,6 @@
     <t>ZWE</t>
   </si>
   <si>
-    <t>539</t>
-  </si>
-  <si>
     <t>540</t>
   </si>
   <si>
@@ -2661,6 +2661,9 @@
     <t>544</t>
   </si>
   <si>
+    <t>545</t>
+  </si>
+  <si>
     <t>Stateless</t>
   </si>
   <si>
@@ -2670,9 +2673,6 @@
     <t>XXA</t>
   </si>
   <si>
-    <t>545</t>
-  </si>
-  <si>
     <t>546</t>
   </si>
   <si>
@@ -2688,6 +2688,9 @@
     <t>551</t>
   </si>
   <si>
+    <t>552</t>
+  </si>
+  <si>
     <t>Unknown </t>
   </si>
   <si>
@@ -2697,9 +2700,6 @@
     <t>UNK</t>
   </si>
   <si>
-    <t>552</t>
-  </si>
-  <si>
     <t>553</t>
   </si>
   <si>
@@ -2716,6 +2716,9 @@
   </si>
   <si>
     <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
   </si>
 </sst>
 </file>
@@ -3100,7 +3103,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V560"/>
+  <dimension ref="A1:V561"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3240,8 +3243,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -3308,8 +3311,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -3376,8 +3379,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -3444,8 +3447,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -3512,8 +3515,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -3580,8 +3583,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -3648,8 +3651,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -3716,8 +3719,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -3784,8 +3787,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -3852,8 +3855,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -3920,8 +3923,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -3988,8 +3991,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -4056,8 +4059,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -4124,8 +4127,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -4192,8 +4195,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -4260,8 +4263,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -4328,8 +4331,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -4396,8 +4399,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -4464,8 +4467,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -4532,8 +4535,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -4600,8 +4603,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -4668,8 +4671,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -4736,8 +4739,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -4804,8 +4807,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -4872,8 +4875,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -4940,8 +4943,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -5008,8 +5011,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -5076,8 +5079,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -5144,8 +5147,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -5212,8 +5215,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -5280,8 +5283,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -5348,8 +5351,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -5416,8 +5419,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -5484,8 +5487,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -5552,8 +5555,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -5620,8 +5623,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -5688,8 +5691,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -5756,8 +5759,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -5824,8 +5827,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -5892,8 +5895,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -5960,8 +5963,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -6028,8 +6031,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -6096,8 +6099,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -6300,8 +6303,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -6368,8 +6371,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -6436,8 +6439,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -6504,8 +6507,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -6572,8 +6575,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -6640,8 +6643,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -6708,8 +6711,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -6776,8 +6779,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -6844,8 +6847,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -6912,8 +6915,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -6980,8 +6983,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -7048,8 +7051,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -7116,8 +7119,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -7184,8 +7187,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -7252,8 +7255,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -7320,8 +7323,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -7388,8 +7391,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -7456,8 +7459,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -7524,8 +7527,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -7592,8 +7595,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -7660,8 +7663,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -7728,8 +7731,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -7796,8 +7799,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -7864,8 +7867,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -7932,8 +7935,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -8136,8 +8139,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -8204,8 +8207,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -8272,8 +8275,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -8340,8 +8343,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -8408,8 +8411,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -8476,8 +8479,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -8544,8 +8547,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -8612,8 +8615,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -8680,8 +8683,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -8748,8 +8751,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -8816,8 +8819,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -8884,8 +8887,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -8952,8 +8955,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -9020,8 +9023,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -9088,8 +9091,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -9156,8 +9159,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -9224,8 +9227,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -9292,8 +9295,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -9360,8 +9363,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -9428,8 +9431,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -9496,8 +9499,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -9564,8 +9567,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -9632,8 +9635,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -9700,8 +9703,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -9768,8 +9771,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -9836,8 +9839,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -9904,8 +9907,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -9972,8 +9975,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -10040,8 +10043,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -10108,8 +10111,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -10176,8 +10179,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -10244,8 +10247,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -10312,8 +10315,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -10380,8 +10383,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -10448,8 +10451,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -10516,8 +10519,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -10720,8 +10723,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -10788,8 +10791,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -10856,8 +10859,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -10924,8 +10927,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -10992,8 +10995,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -11060,8 +11063,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -11128,8 +11131,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -11196,8 +11199,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -11264,8 +11267,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -11332,8 +11335,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -11400,8 +11403,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -11468,8 +11471,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -11536,8 +11539,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -11604,8 +11607,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -11672,8 +11675,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -11740,8 +11743,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -11808,8 +11811,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -11876,8 +11879,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -11944,8 +11947,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -12012,8 +12015,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -12080,8 +12083,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -12148,8 +12151,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -12216,8 +12219,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -12284,8 +12287,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -12352,8 +12355,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -12420,8 +12423,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138">
@@ -12488,8 +12491,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -12556,8 +12559,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -12624,8 +12627,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -12692,8 +12695,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -12760,8 +12763,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -12828,8 +12831,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -12896,8 +12899,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -12964,8 +12967,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -13032,8 +13035,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="147">
@@ -13100,8 +13103,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="148">
@@ -13168,8 +13171,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -13236,8 +13239,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="150">
@@ -13304,8 +13307,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="151">
@@ -13372,8 +13375,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -13440,8 +13443,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -13508,8 +13511,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="154">
@@ -13576,8 +13579,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="155">
@@ -13644,8 +13647,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="156">
@@ -13712,8 +13715,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="157">
@@ -13780,8 +13783,8 @@
       <c r="U157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>33</v>
+      <c r="V157" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="158">
@@ -13848,8 +13851,8 @@
       <c r="U158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>33</v>
+      <c r="V158" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="159">
@@ -13916,8 +13919,8 @@
       <c r="U159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>33</v>
+      <c r="V159" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -14120,8 +14123,8 @@
       <c r="U162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>33</v>
+      <c r="V162" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163">
@@ -14188,8 +14191,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -14256,8 +14259,8 @@
       <c r="U164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>33</v>
+      <c r="V164" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="165">
@@ -14324,8 +14327,8 @@
       <c r="U165" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>33</v>
+      <c r="V165" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="166">
@@ -14392,8 +14395,8 @@
       <c r="U166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>33</v>
+      <c r="V166" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="167">
@@ -14460,8 +14463,8 @@
       <c r="U167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>33</v>
+      <c r="V167" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="168">
@@ -14528,8 +14531,8 @@
       <c r="U168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>33</v>
+      <c r="V168" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="169">
@@ -14596,8 +14599,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="170">
@@ -14664,8 +14667,8 @@
       <c r="U170" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>33</v>
+      <c r="V170" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="171">
@@ -14732,8 +14735,8 @@
       <c r="U171" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>33</v>
+      <c r="V171" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="172">
@@ -14800,8 +14803,8 @@
       <c r="U172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>33</v>
+      <c r="V172" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="173">
@@ -14868,8 +14871,8 @@
       <c r="U173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>33</v>
+      <c r="V173" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="174">
@@ -14936,8 +14939,8 @@
       <c r="U174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>33</v>
+      <c r="V174" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="175">
@@ -15004,8 +15007,8 @@
       <c r="U175" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>33</v>
+      <c r="V175" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="176">
@@ -15072,8 +15075,8 @@
       <c r="U176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>33</v>
+      <c r="V176" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="177">
@@ -15140,8 +15143,8 @@
       <c r="U177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>33</v>
+      <c r="V177" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="178">
@@ -15208,8 +15211,8 @@
       <c r="U178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>33</v>
+      <c r="V178" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="179">
@@ -15276,8 +15279,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="180">
@@ -15344,8 +15347,8 @@
       <c r="U180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>33</v>
+      <c r="V180" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="181">
@@ -15412,8 +15415,8 @@
       <c r="U181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>33</v>
+      <c r="V181" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="182">
@@ -15616,8 +15619,8 @@
       <c r="U184" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>33</v>
+      <c r="V184" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="185">
@@ -15684,8 +15687,8 @@
       <c r="U185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>33</v>
+      <c r="V185" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="186">
@@ -15752,8 +15755,8 @@
       <c r="U186" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>33</v>
+      <c r="V186" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="187">
@@ -15820,8 +15823,8 @@
       <c r="U187" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>33</v>
+      <c r="V187" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="188">
@@ -15888,8 +15891,8 @@
       <c r="U188" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>33</v>
+      <c r="V188" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="189">
@@ -15956,8 +15959,8 @@
       <c r="U189" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>33</v>
+      <c r="V189" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="190">
@@ -16024,8 +16027,8 @@
       <c r="U190" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>33</v>
+      <c r="V190" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="191">
@@ -16092,8 +16095,8 @@
       <c r="U191" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>33</v>
+      <c r="V191" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="192">
@@ -16160,8 +16163,8 @@
       <c r="U192" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>33</v>
+      <c r="V192" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="193">
@@ -16228,8 +16231,8 @@
       <c r="U193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>33</v>
+      <c r="V193" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="194">
@@ -16296,8 +16299,8 @@
       <c r="U194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>33</v>
+      <c r="V194" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -16364,8 +16367,8 @@
       <c r="U195" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>33</v>
+      <c r="V195" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="196">
@@ -16432,8 +16435,8 @@
       <c r="U196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>33</v>
+      <c r="V196" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="197">
@@ -16500,8 +16503,8 @@
       <c r="U197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>33</v>
+      <c r="V197" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="198">
@@ -16568,8 +16571,8 @@
       <c r="U198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>33</v>
+      <c r="V198" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="199">
@@ -16636,8 +16639,8 @@
       <c r="U199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>33</v>
+      <c r="V199" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="200">
@@ -16704,8 +16707,8 @@
       <c r="U200" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>33</v>
+      <c r="V200" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="201">
@@ -16772,8 +16775,8 @@
       <c r="U201" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>33</v>
+      <c r="V201" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="202">
@@ -16840,8 +16843,8 @@
       <c r="U202" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>33</v>
+      <c r="V202" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="203">
@@ -16908,8 +16911,8 @@
       <c r="U203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>33</v>
+      <c r="V203" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="204">
@@ -16976,8 +16979,8 @@
       <c r="U204" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>33</v>
+      <c r="V204" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="205">
@@ -17044,8 +17047,8 @@
       <c r="U205" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>33</v>
+      <c r="V205" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="206">
@@ -17112,8 +17115,8 @@
       <c r="U206" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>33</v>
+      <c r="V206" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -17180,8 +17183,8 @@
       <c r="U207" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V207" s="1" t="s">
-        <v>33</v>
+      <c r="V207" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="208">
@@ -17248,8 +17251,8 @@
       <c r="U208" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>33</v>
+      <c r="V208" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="209">
@@ -17316,8 +17319,8 @@
       <c r="U209" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>33</v>
+      <c r="V209" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="210">
@@ -17384,8 +17387,8 @@
       <c r="U210" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>33</v>
+      <c r="V210" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="211">
@@ -17452,8 +17455,8 @@
       <c r="U211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>33</v>
+      <c r="V211" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="212">
@@ -17520,8 +17523,8 @@
       <c r="U212" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>33</v>
+      <c r="V212" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -17588,8 +17591,8 @@
       <c r="U213" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>33</v>
+      <c r="V213" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="214">
@@ -17656,8 +17659,8 @@
       <c r="U214" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>33</v>
+      <c r="V214" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="215">
@@ -17724,8 +17727,8 @@
       <c r="U215" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>33</v>
+      <c r="V215" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="216">
@@ -17792,8 +17795,8 @@
       <c r="U216" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>33</v>
+      <c r="V216" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="217">
@@ -17860,8 +17863,8 @@
       <c r="U217" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>33</v>
+      <c r="V217" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="218">
@@ -17928,8 +17931,8 @@
       <c r="U218" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>33</v>
+      <c r="V218" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="219">
@@ -17996,8 +17999,8 @@
       <c r="U219" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>33</v>
+      <c r="V219" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="220">
@@ -18064,8 +18067,8 @@
       <c r="U220" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>33</v>
+      <c r="V220" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="221">
@@ -18132,8 +18135,8 @@
       <c r="U221" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>33</v>
+      <c r="V221" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="222">
@@ -18200,8 +18203,8 @@
       <c r="U222" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>33</v>
+      <c r="V222" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="223">
@@ -18268,8 +18271,8 @@
       <c r="U223" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>33</v>
+      <c r="V223" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="224">
@@ -18472,8 +18475,8 @@
       <c r="U226" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V226" s="1" t="s">
-        <v>33</v>
+      <c r="V226" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="227">
@@ -18540,8 +18543,8 @@
       <c r="U227" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V227" s="1" t="s">
-        <v>33</v>
+      <c r="V227" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="228">
@@ -18608,8 +18611,8 @@
       <c r="U228" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V228" s="1" t="s">
-        <v>33</v>
+      <c r="V228" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="229">
@@ -18676,8 +18679,8 @@
       <c r="U229" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V229" s="1" t="s">
-        <v>33</v>
+      <c r="V229" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="230">
@@ -18744,8 +18747,8 @@
       <c r="U230" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V230" s="1" t="s">
-        <v>33</v>
+      <c r="V230" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="231">
@@ -18812,8 +18815,8 @@
       <c r="U231" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>33</v>
+      <c r="V231" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="232">
@@ -18880,8 +18883,8 @@
       <c r="U232" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V232" s="1" t="s">
-        <v>33</v>
+      <c r="V232" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="233">
@@ -18948,8 +18951,8 @@
       <c r="U233" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>33</v>
+      <c r="V233" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="234">
@@ -19016,8 +19019,8 @@
       <c r="U234" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>33</v>
+      <c r="V234" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="235">
@@ -19084,8 +19087,8 @@
       <c r="U235" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V235" s="1" t="s">
-        <v>33</v>
+      <c r="V235" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="236">
@@ -19152,8 +19155,8 @@
       <c r="U236" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V236" s="1" t="s">
-        <v>33</v>
+      <c r="V236" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="237">
@@ -19220,8 +19223,8 @@
       <c r="U237" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V237" s="1" t="s">
-        <v>33</v>
+      <c r="V237" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="238">
@@ -19288,8 +19291,8 @@
       <c r="U238" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V238" s="1" t="s">
-        <v>33</v>
+      <c r="V238" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="239">
@@ -19356,8 +19359,8 @@
       <c r="U239" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V239" s="1" t="s">
-        <v>33</v>
+      <c r="V239" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="240">
@@ -19424,8 +19427,8 @@
       <c r="U240" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V240" s="1" t="s">
-        <v>33</v>
+      <c r="V240" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="241">
@@ -19492,8 +19495,8 @@
       <c r="U241" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V241" s="1" t="s">
-        <v>33</v>
+      <c r="V241" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="242">
@@ -19560,8 +19563,8 @@
       <c r="U242" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V242" s="1" t="s">
-        <v>33</v>
+      <c r="V242" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="243">
@@ -19628,8 +19631,8 @@
       <c r="U243" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V243" s="1" t="s">
-        <v>33</v>
+      <c r="V243" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="244">
@@ -19696,8 +19699,8 @@
       <c r="U244" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V244" s="1" t="s">
-        <v>33</v>
+      <c r="V244" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="245">
@@ -19764,8 +19767,8 @@
       <c r="U245" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V245" s="1" t="s">
-        <v>33</v>
+      <c r="V245" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="246">
@@ -19832,8 +19835,8 @@
       <c r="U246" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V246" s="1" t="s">
-        <v>33</v>
+      <c r="V246" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="247">
@@ -19900,8 +19903,8 @@
       <c r="U247" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V247" s="1" t="s">
-        <v>33</v>
+      <c r="V247" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="248">
@@ -19968,8 +19971,8 @@
       <c r="U248" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V248" s="1" t="s">
-        <v>33</v>
+      <c r="V248" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="249">
@@ -20036,8 +20039,8 @@
       <c r="U249" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V249" s="1" t="s">
-        <v>33</v>
+      <c r="V249" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="250">
@@ -20104,8 +20107,8 @@
       <c r="U250" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V250" s="1" t="s">
-        <v>33</v>
+      <c r="V250" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="251">
@@ -20172,8 +20175,8 @@
       <c r="U251" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V251" s="1" t="s">
-        <v>33</v>
+      <c r="V251" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="252">
@@ -20240,8 +20243,8 @@
       <c r="U252" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V252" s="1" t="s">
-        <v>33</v>
+      <c r="V252" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="253">
@@ -20308,8 +20311,8 @@
       <c r="U253" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V253" s="1" t="s">
-        <v>33</v>
+      <c r="V253" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="254">
@@ -20376,8 +20379,8 @@
       <c r="U254" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V254" s="1" t="s">
-        <v>33</v>
+      <c r="V254" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="255">
@@ -20444,8 +20447,8 @@
       <c r="U255" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V255" s="1" t="s">
-        <v>33</v>
+      <c r="V255" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="256">
@@ -20512,8 +20515,8 @@
       <c r="U256" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V256" s="1" t="s">
-        <v>33</v>
+      <c r="V256" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="257">
@@ -20580,8 +20583,8 @@
       <c r="U257" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V257" s="1" t="s">
-        <v>33</v>
+      <c r="V257" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="258">
@@ -20648,8 +20651,8 @@
       <c r="U258" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V258" s="1" t="s">
-        <v>33</v>
+      <c r="V258" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="259">
@@ -20716,8 +20719,8 @@
       <c r="U259" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V259" s="1" t="s">
-        <v>33</v>
+      <c r="V259" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="260">
@@ -20920,8 +20923,8 @@
       <c r="U262" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V262" s="1" t="s">
-        <v>33</v>
+      <c r="V262" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="263">
@@ -20988,8 +20991,8 @@
       <c r="U263" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V263" s="1" t="s">
-        <v>33</v>
+      <c r="V263" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="264">
@@ -21056,8 +21059,8 @@
       <c r="U264" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V264" s="1" t="s">
-        <v>33</v>
+      <c r="V264" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="265">
@@ -21124,8 +21127,8 @@
       <c r="U265" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V265" s="1" t="s">
-        <v>33</v>
+      <c r="V265" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="266">
@@ -21192,8 +21195,8 @@
       <c r="U266" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V266" s="1" t="s">
-        <v>33</v>
+      <c r="V266" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="267">
@@ -21260,8 +21263,8 @@
       <c r="U267" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V267" s="1" t="s">
-        <v>33</v>
+      <c r="V267" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="268">
@@ -21328,8 +21331,8 @@
       <c r="U268" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V268" s="1" t="s">
-        <v>33</v>
+      <c r="V268" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="269">
@@ -21396,8 +21399,8 @@
       <c r="U269" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V269" s="1" t="s">
-        <v>33</v>
+      <c r="V269" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="270">
@@ -21464,8 +21467,8 @@
       <c r="U270" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V270" s="1" t="s">
-        <v>33</v>
+      <c r="V270" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="271">
@@ -21532,8 +21535,8 @@
       <c r="U271" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V271" s="1" t="s">
-        <v>33</v>
+      <c r="V271" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="272">
@@ -21600,8 +21603,8 @@
       <c r="U272" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V272" s="1" t="s">
-        <v>33</v>
+      <c r="V272" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="273">
@@ -21668,8 +21671,8 @@
       <c r="U273" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V273" s="1" t="s">
-        <v>33</v>
+      <c r="V273" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="274">
@@ -21736,8 +21739,8 @@
       <c r="U274" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V274" s="1" t="s">
-        <v>33</v>
+      <c r="V274" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="275">
@@ -21804,8 +21807,8 @@
       <c r="U275" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V275" s="1" t="s">
-        <v>33</v>
+      <c r="V275" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="276">
@@ -21872,8 +21875,8 @@
       <c r="U276" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V276" s="1" t="s">
-        <v>33</v>
+      <c r="V276" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="277">
@@ -21940,8 +21943,8 @@
       <c r="U277" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V277" s="1" t="s">
-        <v>33</v>
+      <c r="V277" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="278">
@@ -22008,8 +22011,8 @@
       <c r="U278" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V278" s="1" t="s">
-        <v>33</v>
+      <c r="V278" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="279">
@@ -22076,8 +22079,8 @@
       <c r="U279" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V279" s="1" t="s">
-        <v>33</v>
+      <c r="V279" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="280">
@@ -22144,8 +22147,8 @@
       <c r="U280" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V280" s="1" t="s">
-        <v>33</v>
+      <c r="V280" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="281">
@@ -22212,8 +22215,8 @@
       <c r="U281" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V281" s="1" t="s">
-        <v>33</v>
+      <c r="V281" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="282">
@@ -22280,8 +22283,8 @@
       <c r="U282" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V282" s="1" t="s">
-        <v>33</v>
+      <c r="V282" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="283">
@@ -22348,8 +22351,8 @@
       <c r="U283" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V283" s="1" t="s">
-        <v>33</v>
+      <c r="V283" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="284">
@@ -22416,8 +22419,8 @@
       <c r="U284" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V284" s="1" t="s">
-        <v>33</v>
+      <c r="V284" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="285">
@@ -22484,8 +22487,8 @@
       <c r="U285" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V285" s="1" t="s">
-        <v>33</v>
+      <c r="V285" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="286">
@@ -22552,8 +22555,8 @@
       <c r="U286" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V286" s="1" t="s">
-        <v>33</v>
+      <c r="V286" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="287">
@@ -22620,8 +22623,8 @@
       <c r="U287" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V287" s="1" t="s">
-        <v>33</v>
+      <c r="V287" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="288">
@@ -22688,8 +22691,8 @@
       <c r="U288" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V288" s="1" t="s">
-        <v>33</v>
+      <c r="V288" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="289">
@@ -22756,8 +22759,8 @@
       <c r="U289" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V289" s="1" t="s">
-        <v>33</v>
+      <c r="V289" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="290">
@@ -22824,8 +22827,8 @@
       <c r="U290" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V290" s="1" t="s">
-        <v>33</v>
+      <c r="V290" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="291">
@@ -22892,8 +22895,8 @@
       <c r="U291" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V291" s="1" t="s">
-        <v>33</v>
+      <c r="V291" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="292">
@@ -23096,8 +23099,8 @@
       <c r="U294" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V294" s="1" t="s">
-        <v>33</v>
+      <c r="V294" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="295">
@@ -23164,8 +23167,8 @@
       <c r="U295" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V295" s="1" t="s">
-        <v>33</v>
+      <c r="V295" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="296">
@@ -23232,8 +23235,8 @@
       <c r="U296" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V296" s="1" t="s">
-        <v>33</v>
+      <c r="V296" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="297">
@@ -23300,8 +23303,8 @@
       <c r="U297" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V297" s="1" t="s">
-        <v>33</v>
+      <c r="V297" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="298">
@@ -23368,8 +23371,8 @@
       <c r="U298" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V298" s="1" t="s">
-        <v>33</v>
+      <c r="V298" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="299">
@@ -23436,8 +23439,8 @@
       <c r="U299" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V299" s="1" t="s">
-        <v>33</v>
+      <c r="V299" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="300">
@@ -23504,8 +23507,8 @@
       <c r="U300" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V300" s="1" t="s">
-        <v>33</v>
+      <c r="V300" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="301">
@@ -23572,8 +23575,8 @@
       <c r="U301" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V301" s="1" t="s">
-        <v>33</v>
+      <c r="V301" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="302">
@@ -23640,8 +23643,8 @@
       <c r="U302" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V302" s="1" t="s">
-        <v>33</v>
+      <c r="V302" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="303">
@@ -23708,8 +23711,8 @@
       <c r="U303" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V303" s="1" t="s">
-        <v>33</v>
+      <c r="V303" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="304">
@@ -23776,8 +23779,8 @@
       <c r="U304" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V304" s="1" t="s">
-        <v>33</v>
+      <c r="V304" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="305">
@@ -23844,8 +23847,8 @@
       <c r="U305" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V305" s="1" t="s">
-        <v>33</v>
+      <c r="V305" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="306">
@@ -23912,8 +23915,8 @@
       <c r="U306" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V306" s="1" t="s">
-        <v>33</v>
+      <c r="V306" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="307">
@@ -23980,8 +23983,8 @@
       <c r="U307" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V307" s="1" t="s">
-        <v>33</v>
+      <c r="V307" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="308">
@@ -24048,8 +24051,8 @@
       <c r="U308" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V308" s="1" t="s">
-        <v>33</v>
+      <c r="V308" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="309">
@@ -24116,8 +24119,8 @@
       <c r="U309" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V309" s="1" t="s">
-        <v>33</v>
+      <c r="V309" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="310">
@@ -24184,8 +24187,8 @@
       <c r="U310" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V310" s="1" t="s">
-        <v>33</v>
+      <c r="V310" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="311">
@@ -24252,8 +24255,8 @@
       <c r="U311" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V311" s="1" t="s">
-        <v>33</v>
+      <c r="V311" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="312">
@@ -24320,8 +24323,8 @@
       <c r="U312" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V312" s="1" t="s">
-        <v>33</v>
+      <c r="V312" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="313">
@@ -24388,8 +24391,8 @@
       <c r="U313" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V313" s="1" t="s">
-        <v>33</v>
+      <c r="V313" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="314">
@@ -24456,8 +24459,8 @@
       <c r="U314" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V314" s="1" t="s">
-        <v>33</v>
+      <c r="V314" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="315">
@@ -24524,8 +24527,8 @@
       <c r="U315" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V315" s="1" t="s">
-        <v>33</v>
+      <c r="V315" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="316">
@@ -24592,8 +24595,8 @@
       <c r="U316" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V316" s="1" t="s">
-        <v>33</v>
+      <c r="V316" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="317">
@@ -24660,8 +24663,8 @@
       <c r="U317" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V317" s="1" t="s">
-        <v>33</v>
+      <c r="V317" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="318">
@@ -24728,8 +24731,8 @@
       <c r="U318" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V318" s="1" t="s">
-        <v>33</v>
+      <c r="V318" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="319">
@@ -24796,8 +24799,8 @@
       <c r="U319" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V319" s="1" t="s">
-        <v>33</v>
+      <c r="V319" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="320">
@@ -24864,8 +24867,8 @@
       <c r="U320" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V320" s="1" t="s">
-        <v>33</v>
+      <c r="V320" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="321">
@@ -24932,8 +24935,8 @@
       <c r="U321" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V321" s="1" t="s">
-        <v>33</v>
+      <c r="V321" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="322">
@@ -25000,8 +25003,8 @@
       <c r="U322" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V322" s="1" t="s">
-        <v>33</v>
+      <c r="V322" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="323">
@@ -25068,8 +25071,8 @@
       <c r="U323" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V323" s="1" t="s">
-        <v>33</v>
+      <c r="V323" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="324">
@@ -25136,8 +25139,8 @@
       <c r="U324" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V324" s="1" t="s">
-        <v>33</v>
+      <c r="V324" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="325">
@@ -25204,8 +25207,8 @@
       <c r="U325" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V325" s="1" t="s">
-        <v>33</v>
+      <c r="V325" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="326">
@@ -25408,8 +25411,8 @@
       <c r="U328" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V328" s="1" t="s">
-        <v>33</v>
+      <c r="V328" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="329">
@@ -25476,8 +25479,8 @@
       <c r="U329" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V329" s="1" t="s">
-        <v>33</v>
+      <c r="V329" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="330">
@@ -25544,8 +25547,8 @@
       <c r="U330" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V330" s="1" t="s">
-        <v>33</v>
+      <c r="V330" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="331">
@@ -25612,8 +25615,8 @@
       <c r="U331" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V331" s="1" t="s">
-        <v>33</v>
+      <c r="V331" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="332">
@@ -25680,8 +25683,8 @@
       <c r="U332" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V332" s="1" t="s">
-        <v>33</v>
+      <c r="V332" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="333">
@@ -25748,8 +25751,8 @@
       <c r="U333" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V333" s="1" t="s">
-        <v>33</v>
+      <c r="V333" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="334">
@@ -25816,8 +25819,8 @@
       <c r="U334" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V334" s="1" t="s">
-        <v>33</v>
+      <c r="V334" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="335">
@@ -25884,8 +25887,8 @@
       <c r="U335" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V335" s="1" t="s">
-        <v>33</v>
+      <c r="V335" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="336">
@@ -25952,8 +25955,8 @@
       <c r="U336" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V336" s="1" t="s">
-        <v>33</v>
+      <c r="V336" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="337">
@@ -26020,8 +26023,8 @@
       <c r="U337" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V337" s="1" t="s">
-        <v>33</v>
+      <c r="V337" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="338">
@@ -26088,8 +26091,8 @@
       <c r="U338" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V338" s="1" t="s">
-        <v>33</v>
+      <c r="V338" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="339">
@@ -26156,8 +26159,8 @@
       <c r="U339" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V339" s="1" t="s">
-        <v>33</v>
+      <c r="V339" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="340">
@@ -26224,8 +26227,8 @@
       <c r="U340" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V340" s="1" t="s">
-        <v>33</v>
+      <c r="V340" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="341">
@@ -26292,8 +26295,8 @@
       <c r="U341" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V341" s="1" t="s">
-        <v>33</v>
+      <c r="V341" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="342">
@@ -26360,8 +26363,8 @@
       <c r="U342" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V342" s="1" t="s">
-        <v>33</v>
+      <c r="V342" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="343">
@@ -26428,8 +26431,8 @@
       <c r="U343" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V343" s="1" t="s">
-        <v>33</v>
+      <c r="V343" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="344">
@@ -26496,8 +26499,8 @@
       <c r="U344" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V344" s="1" t="s">
-        <v>33</v>
+      <c r="V344" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="345">
@@ -26564,8 +26567,8 @@
       <c r="U345" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V345" s="1" t="s">
-        <v>33</v>
+      <c r="V345" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="346">
@@ -26632,8 +26635,8 @@
       <c r="U346" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V346" s="1" t="s">
-        <v>33</v>
+      <c r="V346" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="347">
@@ -26700,8 +26703,8 @@
       <c r="U347" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V347" s="1" t="s">
-        <v>33</v>
+      <c r="V347" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="348">
@@ -26768,8 +26771,8 @@
       <c r="U348" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V348" s="1" t="s">
-        <v>33</v>
+      <c r="V348" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="349">
@@ -26836,8 +26839,8 @@
       <c r="U349" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V349" s="1" t="s">
-        <v>33</v>
+      <c r="V349" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="350">
@@ -26904,8 +26907,8 @@
       <c r="U350" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V350" s="1" t="s">
-        <v>33</v>
+      <c r="V350" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="351">
@@ -26972,8 +26975,8 @@
       <c r="U351" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V351" s="1" t="s">
-        <v>33</v>
+      <c r="V351" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="352">
@@ -27171,7 +27174,7 @@
         <v>32</v>
       </c>
       <c r="T354" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="U354" s="1" t="s">
         <v>33</v>
@@ -27244,8 +27247,8 @@
       <c r="U355" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V355" s="1" t="s">
-        <v>33</v>
+      <c r="V355" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="356">
@@ -27312,8 +27315,8 @@
       <c r="U356" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V356" s="1" t="s">
-        <v>33</v>
+      <c r="V356" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="357">
@@ -27380,8 +27383,8 @@
       <c r="U357" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V357" s="1" t="s">
-        <v>33</v>
+      <c r="V357" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="358">
@@ -27448,8 +27451,8 @@
       <c r="U358" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V358" s="1" t="s">
-        <v>33</v>
+      <c r="V358" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="359">
@@ -27516,8 +27519,8 @@
       <c r="U359" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V359" s="1" t="s">
-        <v>33</v>
+      <c r="V359" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="360">
@@ -27584,8 +27587,8 @@
       <c r="U360" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V360" s="1" t="s">
-        <v>33</v>
+      <c r="V360" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="361">
@@ -27652,8 +27655,8 @@
       <c r="U361" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V361" s="1" t="s">
-        <v>33</v>
+      <c r="V361" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="362">
@@ -27720,8 +27723,8 @@
       <c r="U362" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V362" s="1" t="s">
-        <v>33</v>
+      <c r="V362" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="363">
@@ -27788,8 +27791,8 @@
       <c r="U363" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V363" s="1" t="s">
-        <v>33</v>
+      <c r="V363" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="364">
@@ -27856,8 +27859,8 @@
       <c r="U364" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V364" s="1" t="s">
-        <v>33</v>
+      <c r="V364" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="365">
@@ -27924,8 +27927,8 @@
       <c r="U365" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V365" s="1" t="s">
-        <v>33</v>
+      <c r="V365" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="366">
@@ -27992,8 +27995,8 @@
       <c r="U366" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V366" s="1" t="s">
-        <v>33</v>
+      <c r="V366" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="367">
@@ -28060,8 +28063,8 @@
       <c r="U367" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V367" s="1" t="s">
-        <v>33</v>
+      <c r="V367" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="368">
@@ -28128,8 +28131,8 @@
       <c r="U368" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V368" s="1" t="s">
-        <v>33</v>
+      <c r="V368" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="369">
@@ -28196,8 +28199,8 @@
       <c r="U369" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V369" s="1" t="s">
-        <v>33</v>
+      <c r="V369" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="370">
@@ -28264,8 +28267,8 @@
       <c r="U370" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V370" s="1" t="s">
-        <v>33</v>
+      <c r="V370" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="371">
@@ -28332,8 +28335,8 @@
       <c r="U371" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V371" s="1" t="s">
-        <v>33</v>
+      <c r="V371" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="372">
@@ -28400,8 +28403,8 @@
       <c r="U372" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V372" s="1" t="s">
-        <v>33</v>
+      <c r="V372" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="373">
@@ -28468,8 +28471,8 @@
       <c r="U373" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V373" s="1" t="s">
-        <v>33</v>
+      <c r="V373" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="374">
@@ -28536,8 +28539,8 @@
       <c r="U374" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V374" s="1" t="s">
-        <v>33</v>
+      <c r="V374" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="375">
@@ -28740,8 +28743,8 @@
       <c r="U377" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V377" s="1" t="s">
-        <v>33</v>
+      <c r="V377" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="378">
@@ -28808,8 +28811,8 @@
       <c r="U378" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V378" s="1" t="s">
-        <v>33</v>
+      <c r="V378" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="379">
@@ -28876,8 +28879,8 @@
       <c r="U379" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V379" s="1" t="s">
-        <v>33</v>
+      <c r="V379" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="380">
@@ -28944,8 +28947,8 @@
       <c r="U380" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V380" s="1" t="s">
-        <v>33</v>
+      <c r="V380" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="381">
@@ -29012,8 +29015,8 @@
       <c r="U381" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V381" s="1" t="s">
-        <v>33</v>
+      <c r="V381" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="382">
@@ -29080,8 +29083,8 @@
       <c r="U382" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V382" s="1" t="s">
-        <v>33</v>
+      <c r="V382" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="383">
@@ -29148,8 +29151,8 @@
       <c r="U383" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V383" s="1" t="s">
-        <v>33</v>
+      <c r="V383" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="384">
@@ -29216,8 +29219,8 @@
       <c r="U384" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V384" s="1" t="s">
-        <v>33</v>
+      <c r="V384" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="385">
@@ -29284,8 +29287,8 @@
       <c r="U385" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V385" s="1" t="s">
-        <v>33</v>
+      <c r="V385" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="386">
@@ -29352,8 +29355,8 @@
       <c r="U386" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V386" s="1" t="s">
-        <v>33</v>
+      <c r="V386" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="387">
@@ -29420,8 +29423,8 @@
       <c r="U387" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V387" s="1" t="s">
-        <v>33</v>
+      <c r="V387" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="388">
@@ -29488,8 +29491,8 @@
       <c r="U388" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V388" s="1" t="s">
-        <v>33</v>
+      <c r="V388" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="389">
@@ -29556,8 +29559,8 @@
       <c r="U389" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V389" s="1" t="s">
-        <v>33</v>
+      <c r="V389" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="390">
@@ -29624,8 +29627,8 @@
       <c r="U390" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V390" s="1" t="s">
-        <v>33</v>
+      <c r="V390" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="391">
@@ -29692,8 +29695,8 @@
       <c r="U391" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V391" s="1" t="s">
-        <v>33</v>
+      <c r="V391" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="392">
@@ -29760,8 +29763,8 @@
       <c r="U392" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V392" s="1" t="s">
-        <v>33</v>
+      <c r="V392" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="393">
@@ -29828,8 +29831,8 @@
       <c r="U393" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V393" s="1" t="s">
-        <v>33</v>
+      <c r="V393" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="394">
@@ -29896,8 +29899,8 @@
       <c r="U394" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V394" s="1" t="s">
-        <v>33</v>
+      <c r="V394" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="395">
@@ -29964,8 +29967,8 @@
       <c r="U395" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V395" s="1" t="s">
-        <v>33</v>
+      <c r="V395" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="396">
@@ -30032,8 +30035,8 @@
       <c r="U396" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V396" s="1" t="s">
-        <v>33</v>
+      <c r="V396" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="397">
@@ -30100,8 +30103,8 @@
       <c r="U397" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V397" s="1" t="s">
-        <v>33</v>
+      <c r="V397" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="398">
@@ -30168,8 +30171,8 @@
       <c r="U398" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V398" s="1" t="s">
-        <v>33</v>
+      <c r="V398" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="399">
@@ -30236,8 +30239,8 @@
       <c r="U399" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V399" s="1" t="s">
-        <v>33</v>
+      <c r="V399" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="400">
@@ -30304,8 +30307,8 @@
       <c r="U400" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V400" s="1" t="s">
-        <v>33</v>
+      <c r="V400" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="401">
@@ -30372,8 +30375,8 @@
       <c r="U401" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V401" s="1" t="s">
-        <v>33</v>
+      <c r="V401" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="402">
@@ -30440,8 +30443,8 @@
       <c r="U402" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V402" s="1" t="s">
-        <v>33</v>
+      <c r="V402" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="403">
@@ -30508,8 +30511,8 @@
       <c r="U403" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V403" s="1" t="s">
-        <v>33</v>
+      <c r="V403" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="404">
@@ -30576,8 +30579,8 @@
       <c r="U404" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V404" s="1" t="s">
-        <v>33</v>
+      <c r="V404" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="405">
@@ -30644,8 +30647,8 @@
       <c r="U405" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V405" s="1" t="s">
-        <v>33</v>
+      <c r="V405" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="406">
@@ -30712,8 +30715,8 @@
       <c r="U406" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V406" s="1" t="s">
-        <v>33</v>
+      <c r="V406" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="407">
@@ -30780,8 +30783,8 @@
       <c r="U407" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V407" s="1" t="s">
-        <v>33</v>
+      <c r="V407" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="408">
@@ -30848,8 +30851,8 @@
       <c r="U408" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V408" s="1" t="s">
-        <v>33</v>
+      <c r="V408" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="409">
@@ -30916,8 +30919,8 @@
       <c r="U409" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V409" s="1" t="s">
-        <v>33</v>
+      <c r="V409" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="410">
@@ -30984,8 +30987,8 @@
       <c r="U410" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V410" s="1" t="s">
-        <v>33</v>
+      <c r="V410" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="411">
@@ -31052,8 +31055,8 @@
       <c r="U411" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V411" s="1" t="s">
-        <v>33</v>
+      <c r="V411" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="412">
@@ -31120,8 +31123,8 @@
       <c r="U412" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V412" s="1" t="s">
-        <v>33</v>
+      <c r="V412" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="413">
@@ -31188,8 +31191,8 @@
       <c r="U413" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V413" s="1" t="s">
-        <v>33</v>
+      <c r="V413" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="414">
@@ -31256,8 +31259,8 @@
       <c r="U414" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V414" s="1" t="s">
-        <v>33</v>
+      <c r="V414" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="415">
@@ -31324,8 +31327,8 @@
       <c r="U415" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V415" s="1" t="s">
-        <v>33</v>
+      <c r="V415" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="416">
@@ -31392,8 +31395,8 @@
       <c r="U416" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V416" s="1" t="s">
-        <v>33</v>
+      <c r="V416" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="417">
@@ -31460,8 +31463,8 @@
       <c r="U417" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V417" s="1" t="s">
-        <v>33</v>
+      <c r="V417" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="418">
@@ -31528,8 +31531,8 @@
       <c r="U418" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V418" s="1" t="s">
-        <v>33</v>
+      <c r="V418" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="419">
@@ -31596,8 +31599,8 @@
       <c r="U419" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V419" s="1" t="s">
-        <v>33</v>
+      <c r="V419" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="420">
@@ -31664,8 +31667,8 @@
       <c r="U420" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V420" s="1" t="s">
-        <v>33</v>
+      <c r="V420" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="421">
@@ -31732,8 +31735,8 @@
       <c r="U421" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V421" s="1" t="s">
-        <v>33</v>
+      <c r="V421" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="422">
@@ -31800,8 +31803,8 @@
       <c r="U422" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V422" s="1" t="s">
-        <v>33</v>
+      <c r="V422" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="423">
@@ -31868,8 +31871,8 @@
       <c r="U423" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V423" s="1" t="s">
-        <v>33</v>
+      <c r="V423" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="424">
@@ -31936,8 +31939,8 @@
       <c r="U424" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V424" s="1" t="s">
-        <v>33</v>
+      <c r="V424" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="425">
@@ -32004,8 +32007,8 @@
       <c r="U425" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V425" s="1" t="s">
-        <v>33</v>
+      <c r="V425" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="426">
@@ -32072,8 +32075,8 @@
       <c r="U426" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V426" s="1" t="s">
-        <v>33</v>
+      <c r="V426" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="427">
@@ -32140,8 +32143,8 @@
       <c r="U427" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V427" s="1" t="s">
-        <v>33</v>
+      <c r="V427" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="428">
@@ -32208,8 +32211,8 @@
       <c r="U428" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V428" s="1" t="s">
-        <v>33</v>
+      <c r="V428" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="429">
@@ -32276,8 +32279,8 @@
       <c r="U429" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V429" s="1" t="s">
-        <v>33</v>
+      <c r="V429" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="430">
@@ -32344,8 +32347,8 @@
       <c r="U430" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V430" s="1" t="s">
-        <v>33</v>
+      <c r="V430" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="431">
@@ -32457,7 +32460,7 @@
         <v>30</v>
       </c>
       <c r="N432" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O432" s="2" t="s">
         <v>115</v>
@@ -32548,8 +32551,8 @@
       <c r="U433" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V433" s="1" t="s">
-        <v>33</v>
+      <c r="V433" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="434">
@@ -32616,8 +32619,8 @@
       <c r="U434" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V434" s="1" t="s">
-        <v>33</v>
+      <c r="V434" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="435">
@@ -32634,19 +32637,19 @@
         <v>727</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I435" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="J435" s="2" t="s">
         <v>28</v>
@@ -32664,10 +32667,10 @@
         <v>32</v>
       </c>
       <c r="O435" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P435" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="Q435" s="2" t="s">
         <v>32</v>
@@ -32684,8 +32687,8 @@
       <c r="U435" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V435" s="1" t="s">
-        <v>33</v>
+      <c r="V435" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="436">
@@ -32699,22 +32702,22 @@
         <v>22</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I436" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J436" s="2" t="s">
         <v>28</v>
@@ -32732,10 +32735,10 @@
         <v>32</v>
       </c>
       <c r="O436" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P436" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q436" s="2" t="s">
         <v>32</v>
@@ -32752,8 +32755,8 @@
       <c r="U436" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V436" s="1" t="s">
-        <v>33</v>
+      <c r="V436" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="437">
@@ -32770,19 +32773,19 @@
         <v>764</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H437" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I437" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J437" s="2" t="s">
         <v>28</v>
@@ -32797,10 +32800,10 @@
         <v>30</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="O437" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P437" s="2" t="s">
         <v>32</v>
@@ -32820,8 +32823,8 @@
       <c r="U437" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V437" s="1" t="s">
-        <v>33</v>
+      <c r="V437" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="438">
@@ -32838,19 +32841,19 @@
         <v>765</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H438" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I438" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J438" s="2" t="s">
         <v>28</v>
@@ -32865,7 +32868,7 @@
         <v>30</v>
       </c>
       <c r="N438" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O438" s="2" t="s">
         <v>32</v>
@@ -32888,8 +32891,8 @@
       <c r="U438" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V438" s="1" t="s">
-        <v>33</v>
+      <c r="V438" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="439">
@@ -32906,19 +32909,19 @@
         <v>766</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H439" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I439" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J439" s="2" t="s">
         <v>28</v>
@@ -32956,8 +32959,8 @@
       <c r="U439" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V439" s="1" t="s">
-        <v>33</v>
+      <c r="V439" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="440">
@@ -32974,19 +32977,19 @@
         <v>767</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H440" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I440" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J440" s="2" t="s">
         <v>28</v>
@@ -33024,8 +33027,8 @@
       <c r="U440" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V440" s="1" t="s">
-        <v>33</v>
+      <c r="V440" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="441">
@@ -33042,19 +33045,19 @@
         <v>711</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H441" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I441" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J441" s="2" t="s">
         <v>28</v>
@@ -33092,8 +33095,8 @@
       <c r="U441" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V441" s="1" t="s">
-        <v>33</v>
+      <c r="V441" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="442">
@@ -33110,19 +33113,19 @@
         <v>768</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H442" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I442" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J442" s="2" t="s">
         <v>28</v>
@@ -33160,8 +33163,8 @@
       <c r="U442" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V442" s="1" t="s">
-        <v>33</v>
+      <c r="V442" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="443">
@@ -33178,19 +33181,19 @@
         <v>769</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H443" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I443" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J443" s="2" t="s">
         <v>28</v>
@@ -33228,8 +33231,8 @@
       <c r="U443" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V443" s="1" t="s">
-        <v>33</v>
+      <c r="V443" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="444">
@@ -33246,19 +33249,19 @@
         <v>770</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H444" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I444" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J444" s="2" t="s">
         <v>28</v>
@@ -33296,8 +33299,8 @@
       <c r="U444" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V444" s="1" t="s">
-        <v>33</v>
+      <c r="V444" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="445">
@@ -33314,19 +33317,19 @@
         <v>771</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H445" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I445" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J445" s="2" t="s">
         <v>28</v>
@@ -33364,8 +33367,8 @@
       <c r="U445" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V445" s="1" t="s">
-        <v>33</v>
+      <c r="V445" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="446">
@@ -33382,19 +33385,19 @@
         <v>772</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H446" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I446" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J446" s="2" t="s">
         <v>28</v>
@@ -33409,7 +33412,7 @@
         <v>30</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="O446" s="2" t="s">
         <v>32</v>
@@ -33432,8 +33435,8 @@
       <c r="U446" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V446" s="1" t="s">
-        <v>33</v>
+      <c r="V446" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="447">
@@ -33450,19 +33453,19 @@
         <v>773</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H447" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J447" s="2" t="s">
         <v>28</v>
@@ -33477,7 +33480,7 @@
         <v>30</v>
       </c>
       <c r="N447" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O447" s="2" t="s">
         <v>32</v>
@@ -33500,8 +33503,8 @@
       <c r="U447" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V447" s="1" t="s">
-        <v>33</v>
+      <c r="V447" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="448">
@@ -33518,19 +33521,19 @@
         <v>774</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H448" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I448" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J448" s="2" t="s">
         <v>28</v>
@@ -33545,7 +33548,7 @@
         <v>30</v>
       </c>
       <c r="N448" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="O448" s="2" t="s">
         <v>32</v>
@@ -33568,8 +33571,8 @@
       <c r="U448" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V448" s="1" t="s">
-        <v>33</v>
+      <c r="V448" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="449">
@@ -33586,19 +33589,19 @@
         <v>775</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J449" s="2" t="s">
         <v>28</v>
@@ -33616,7 +33619,7 @@
         <v>78</v>
       </c>
       <c r="O449" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P449" s="2" t="s">
         <v>32</v>
@@ -33636,8 +33639,8 @@
       <c r="U449" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V449" s="1" t="s">
-        <v>33</v>
+      <c r="V449" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="450">
@@ -33654,19 +33657,19 @@
         <v>776</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I450" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J450" s="2" t="s">
         <v>28</v>
@@ -33681,10 +33684,10 @@
         <v>30</v>
       </c>
       <c r="N450" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="O450" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P450" s="2" t="s">
         <v>32</v>
@@ -33704,8 +33707,8 @@
       <c r="U450" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V450" s="1" t="s">
-        <v>33</v>
+      <c r="V450" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="451">
@@ -33722,19 +33725,19 @@
         <v>777</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I451" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J451" s="2" t="s">
         <v>28</v>
@@ -33749,10 +33752,10 @@
         <v>30</v>
       </c>
       <c r="N451" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="O451" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="P451" s="2" t="s">
         <v>32</v>
@@ -33772,8 +33775,8 @@
       <c r="U451" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V451" s="1" t="s">
-        <v>33</v>
+      <c r="V451" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="452">
@@ -33790,19 +33793,19 @@
         <v>204</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I452" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J452" s="2" t="s">
         <v>28</v>
@@ -33820,7 +33823,7 @@
         <v>130</v>
       </c>
       <c r="O452" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P452" s="2" t="s">
         <v>32</v>
@@ -33840,8 +33843,8 @@
       <c r="U452" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V452" s="1" t="s">
-        <v>33</v>
+      <c r="V452" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="453">
@@ -33858,19 +33861,19 @@
         <v>778</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I453" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>28</v>
@@ -33885,10 +33888,10 @@
         <v>30</v>
       </c>
       <c r="N453" s="2" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="O453" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P453" s="2" t="s">
         <v>32</v>
@@ -33908,8 +33911,8 @@
       <c r="U453" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V453" s="1" t="s">
-        <v>33</v>
+      <c r="V453" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="454">
@@ -33926,19 +33929,19 @@
         <v>779</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I454" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J454" s="2" t="s">
         <v>28</v>
@@ -33976,8 +33979,8 @@
       <c r="U454" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V454" s="1" t="s">
-        <v>33</v>
+      <c r="V454" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="455">
@@ -33994,19 +33997,19 @@
         <v>780</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I455" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J455" s="2" t="s">
         <v>28</v>
@@ -34021,10 +34024,10 @@
         <v>30</v>
       </c>
       <c r="N455" s="2" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="O455" s="2" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="P455" s="2" t="s">
         <v>32</v>
@@ -34044,8 +34047,8 @@
       <c r="U455" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V455" s="1" t="s">
-        <v>33</v>
+      <c r="V455" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="456">
@@ -34062,19 +34065,19 @@
         <v>781</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I456" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J456" s="2" t="s">
         <v>28</v>
@@ -34130,19 +34133,19 @@
         <v>746</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I457" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J457" s="2" t="s">
         <v>28</v>
@@ -34157,10 +34160,10 @@
         <v>30</v>
       </c>
       <c r="N457" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O457" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="P457" s="2" t="s">
         <v>32</v>
@@ -34198,19 +34201,19 @@
         <v>782</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="I458" s="1" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="J458" s="2" t="s">
         <v>28</v>
@@ -34225,10 +34228,10 @@
         <v>30</v>
       </c>
       <c r="N458" s="2" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="O458" s="2" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="P458" s="2" t="s">
         <v>32</v>
@@ -34248,8 +34251,8 @@
       <c r="U458" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V458" s="1" t="s">
-        <v>33</v>
+      <c r="V458" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="459">
@@ -34263,22 +34266,22 @@
         <v>22</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I459" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J459" s="2" t="s">
         <v>28</v>
@@ -34296,7 +34299,7 @@
         <v>32</v>
       </c>
       <c r="O459" s="2" t="s">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="P459" s="2" t="s">
         <v>32</v>
@@ -34316,8 +34319,8 @@
       <c r="U459" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V459" s="1" t="s">
-        <v>33</v>
+      <c r="V459" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="460">
@@ -34334,19 +34337,19 @@
         <v>787</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J460" s="2" t="s">
         <v>28</v>
@@ -34364,7 +34367,7 @@
         <v>32</v>
       </c>
       <c r="O460" s="2" t="s">
-        <v>28</v>
+        <v>310</v>
       </c>
       <c r="P460" s="2" t="s">
         <v>32</v>
@@ -34384,8 +34387,8 @@
       <c r="U460" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V460" s="1" t="s">
-        <v>33</v>
+      <c r="V460" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="461">
@@ -34402,19 +34405,19 @@
         <v>788</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I461" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J461" s="2" t="s">
         <v>28</v>
@@ -34432,7 +34435,7 @@
         <v>32</v>
       </c>
       <c r="O461" s="2" t="s">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="P461" s="2" t="s">
         <v>32</v>
@@ -34452,8 +34455,8 @@
       <c r="U461" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V461" s="1" t="s">
-        <v>33</v>
+      <c r="V461" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="462">
@@ -34470,19 +34473,19 @@
         <v>418</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J462" s="2" t="s">
         <v>28</v>
@@ -34500,7 +34503,7 @@
         <v>32</v>
       </c>
       <c r="O462" s="2" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="P462" s="2" t="s">
         <v>32</v>
@@ -34520,8 +34523,8 @@
       <c r="U462" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V462" s="1" t="s">
-        <v>33</v>
+      <c r="V462" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="463">
@@ -34538,19 +34541,19 @@
         <v>789</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J463" s="2" t="s">
         <v>28</v>
@@ -34568,7 +34571,7 @@
         <v>32</v>
       </c>
       <c r="O463" s="2" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="P463" s="2" t="s">
         <v>32</v>
@@ -34588,8 +34591,8 @@
       <c r="U463" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V463" s="1" t="s">
-        <v>33</v>
+      <c r="V463" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="464">
@@ -34606,19 +34609,19 @@
         <v>790</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I464" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J464" s="2" t="s">
         <v>28</v>
@@ -34636,7 +34639,7 @@
         <v>32</v>
       </c>
       <c r="O464" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="P464" s="2" t="s">
         <v>32</v>
@@ -34656,8 +34659,8 @@
       <c r="U464" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V464" s="1" t="s">
-        <v>33</v>
+      <c r="V464" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="465">
@@ -34674,19 +34677,19 @@
         <v>791</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I465" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J465" s="2" t="s">
         <v>28</v>
@@ -34724,8 +34727,8 @@
       <c r="U465" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V465" s="1" t="s">
-        <v>33</v>
+      <c r="V465" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="466">
@@ -34742,19 +34745,19 @@
         <v>792</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H466" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I466" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J466" s="2" t="s">
         <v>28</v>
@@ -34772,7 +34775,7 @@
         <v>32</v>
       </c>
       <c r="O466" s="2" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="P466" s="2" t="s">
         <v>32</v>
@@ -34792,8 +34795,8 @@
       <c r="U466" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V466" s="1" t="s">
-        <v>33</v>
+      <c r="V466" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="467">
@@ -34810,19 +34813,19 @@
         <v>793</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H467" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I467" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J467" s="2" t="s">
         <v>28</v>
@@ -34860,8 +34863,8 @@
       <c r="U467" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V467" s="1" t="s">
-        <v>33</v>
+      <c r="V467" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="468">
@@ -34878,19 +34881,19 @@
         <v>794</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H468" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I468" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>28</v>
@@ -34946,19 +34949,19 @@
         <v>795</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H469" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I469" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J469" s="2" t="s">
         <v>28</v>
@@ -35014,19 +35017,19 @@
         <v>796</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="H470" s="1" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="J470" s="2" t="s">
         <v>28</v>
@@ -35044,7 +35047,7 @@
         <v>32</v>
       </c>
       <c r="O470" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="P470" s="2" t="s">
         <v>32</v>
@@ -35064,8 +35067,8 @@
       <c r="U470" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V470" s="1" t="s">
-        <v>33</v>
+      <c r="V470" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="471">
@@ -35079,22 +35082,22 @@
         <v>22</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>411</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H471" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I471" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J471" s="2" t="s">
         <v>28</v>
@@ -35112,7 +35115,7 @@
         <v>32</v>
       </c>
       <c r="O471" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="P471" s="2" t="s">
         <v>32</v>
@@ -35132,8 +35135,8 @@
       <c r="U471" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V471" s="1" t="s">
-        <v>33</v>
+      <c r="V471" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="472">
@@ -35150,19 +35153,19 @@
         <v>800</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>411</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H472" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I472" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J472" s="2" t="s">
         <v>28</v>
@@ -35180,10 +35183,10 @@
         <v>32</v>
       </c>
       <c r="O472" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P472" s="2" t="s">
-        <v>801</v>
+        <v>32</v>
       </c>
       <c r="Q472" s="2" t="s">
         <v>32</v>
@@ -35200,8 +35203,8 @@
       <c r="U472" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V472" s="1" t="s">
-        <v>33</v>
+      <c r="V472" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="473">
@@ -35215,22 +35218,22 @@
         <v>22</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>411</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H473" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I473" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J473" s="2" t="s">
         <v>28</v>
@@ -35245,13 +35248,13 @@
         <v>30</v>
       </c>
       <c r="N473" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O473" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P473" s="2" t="s">
-        <v>32</v>
+        <v>802</v>
       </c>
       <c r="Q473" s="2" t="s">
         <v>32</v>
@@ -35268,8 +35271,8 @@
       <c r="U473" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V473" s="1" t="s">
-        <v>33</v>
+      <c r="V473" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="474">
@@ -35286,19 +35289,19 @@
         <v>803</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>411</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H474" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I474" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J474" s="2" t="s">
         <v>28</v>
@@ -35313,7 +35316,7 @@
         <v>30</v>
       </c>
       <c r="N474" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O474" s="2" t="s">
         <v>32</v>
@@ -35336,8 +35339,8 @@
       <c r="U474" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V474" s="1" t="s">
-        <v>33</v>
+      <c r="V474" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="475">
@@ -35354,19 +35357,19 @@
         <v>804</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>411</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H475" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I475" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J475" s="2" t="s">
         <v>28</v>
@@ -35404,8 +35407,8 @@
       <c r="U475" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V475" s="1" t="s">
-        <v>33</v>
+      <c r="V475" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="476">
@@ -35422,19 +35425,19 @@
         <v>805</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>411</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H476" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I476" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J476" s="2" t="s">
         <v>28</v>
@@ -35472,8 +35475,8 @@
       <c r="U476" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V476" s="1" t="s">
-        <v>33</v>
+      <c r="V476" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="477">
@@ -35490,19 +35493,19 @@
         <v>806</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>411</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H477" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I477" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J477" s="2" t="s">
         <v>28</v>
@@ -35517,7 +35520,7 @@
         <v>30</v>
       </c>
       <c r="N477" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O477" s="2" t="s">
         <v>32</v>
@@ -35540,8 +35543,8 @@
       <c r="U477" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V477" s="1" t="s">
-        <v>33</v>
+      <c r="V477" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="478">
@@ -35558,19 +35561,19 @@
         <v>807</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>411</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I478" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J478" s="2" t="s">
         <v>28</v>
@@ -35608,8 +35611,8 @@
       <c r="U478" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V478" s="1" t="s">
-        <v>33</v>
+      <c r="V478" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="479">
@@ -35626,19 +35629,19 @@
         <v>808</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>411</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I479" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J479" s="2" t="s">
         <v>28</v>
@@ -35694,19 +35697,19 @@
         <v>809</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>411</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J480" s="2" t="s">
         <v>28</v>
@@ -35762,19 +35765,19 @@
         <v>810</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="H481" s="1" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="I481" s="1" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="J481" s="2" t="s">
         <v>28</v>
@@ -35789,10 +35792,10 @@
         <v>30</v>
       </c>
       <c r="N481" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O481" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P481" s="2" t="s">
         <v>32</v>
@@ -35812,8 +35815,8 @@
       <c r="U481" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V481" s="1" t="s">
-        <v>33</v>
+      <c r="V481" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="482">
@@ -35827,22 +35830,22 @@
         <v>22</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>422</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I482" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="J482" s="2" t="s">
         <v>28</v>
@@ -35880,8 +35883,8 @@
       <c r="U482" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V482" s="1" t="s">
-        <v>33</v>
+      <c r="V482" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="483">
@@ -35898,19 +35901,19 @@
         <v>814</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>422</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I483" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="J483" s="2" t="s">
         <v>28</v>
@@ -35928,7 +35931,7 @@
         <v>32</v>
       </c>
       <c r="O483" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P483" s="2" t="s">
         <v>32</v>
@@ -35948,8 +35951,8 @@
       <c r="U483" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V483" s="1" t="s">
-        <v>33</v>
+      <c r="V483" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="484">
@@ -35966,19 +35969,19 @@
         <v>815</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>422</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H484" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I484" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="J484" s="2" t="s">
         <v>28</v>
@@ -35996,7 +35999,7 @@
         <v>32</v>
       </c>
       <c r="O484" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="P484" s="2" t="s">
         <v>32</v>
@@ -36016,8 +36019,8 @@
       <c r="U484" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V484" s="1" t="s">
-        <v>33</v>
+      <c r="V484" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="485">
@@ -36034,19 +36037,19 @@
         <v>816</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>422</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I485" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="J485" s="2" t="s">
         <v>28</v>
@@ -36064,7 +36067,7 @@
         <v>32</v>
       </c>
       <c r="O485" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P485" s="2" t="s">
         <v>32</v>
@@ -36084,8 +36087,8 @@
       <c r="U485" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V485" s="1" t="s">
-        <v>33</v>
+      <c r="V485" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="486">
@@ -36102,19 +36105,19 @@
         <v>817</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="I486" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="J486" s="2" t="s">
         <v>28</v>
@@ -36129,10 +36132,10 @@
         <v>30</v>
       </c>
       <c r="N486" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O486" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P486" s="2" t="s">
         <v>32</v>
@@ -36152,8 +36155,8 @@
       <c r="U486" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V486" s="1" t="s">
-        <v>33</v>
+      <c r="V486" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="487">
@@ -36167,22 +36170,22 @@
         <v>22</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I487" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J487" s="2" t="s">
         <v>28</v>
@@ -36220,8 +36223,8 @@
       <c r="U487" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V487" s="1" t="s">
-        <v>33</v>
+      <c r="V487" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="488">
@@ -36238,19 +36241,19 @@
         <v>821</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I488" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J488" s="2" t="s">
         <v>28</v>
@@ -36288,8 +36291,8 @@
       <c r="U488" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V488" s="1" t="s">
-        <v>33</v>
+      <c r="V488" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="489">
@@ -36306,19 +36309,19 @@
         <v>822</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I489" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J489" s="2" t="s">
         <v>28</v>
@@ -36356,8 +36359,8 @@
       <c r="U489" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V489" s="1" t="s">
-        <v>33</v>
+      <c r="V489" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="490">
@@ -36374,19 +36377,19 @@
         <v>823</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I490" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J490" s="2" t="s">
         <v>28</v>
@@ -36424,8 +36427,8 @@
       <c r="U490" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V490" s="1" t="s">
-        <v>33</v>
+      <c r="V490" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="491">
@@ -36442,19 +36445,19 @@
         <v>824</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J491" s="2" t="s">
         <v>28</v>
@@ -36492,8 +36495,8 @@
       <c r="U491" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V491" s="1" t="s">
-        <v>33</v>
+      <c r="V491" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="492">
@@ -36510,19 +36513,19 @@
         <v>737</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I492" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J492" s="2" t="s">
         <v>28</v>
@@ -36560,8 +36563,8 @@
       <c r="U492" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V492" s="1" t="s">
-        <v>33</v>
+      <c r="V492" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="493">
@@ -36578,19 +36581,19 @@
         <v>825</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J493" s="2" t="s">
         <v>28</v>
@@ -36628,8 +36631,8 @@
       <c r="U493" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V493" s="1" t="s">
-        <v>33</v>
+      <c r="V493" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="494">
@@ -36646,19 +36649,19 @@
         <v>826</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J494" s="2" t="s">
         <v>28</v>
@@ -36696,8 +36699,8 @@
       <c r="U494" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V494" s="1" t="s">
-        <v>33</v>
+      <c r="V494" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="495">
@@ -36714,19 +36717,19 @@
         <v>827</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H495" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J495" s="2" t="s">
         <v>28</v>
@@ -36764,8 +36767,8 @@
       <c r="U495" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V495" s="1" t="s">
-        <v>33</v>
+      <c r="V495" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="496">
@@ -36782,19 +36785,19 @@
         <v>828</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H496" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I496" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J496" s="2" t="s">
         <v>28</v>
@@ -36812,7 +36815,7 @@
         <v>42</v>
       </c>
       <c r="O496" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P496" s="2" t="s">
         <v>32</v>
@@ -36832,8 +36835,8 @@
       <c r="U496" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V496" s="1" t="s">
-        <v>33</v>
+      <c r="V496" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="497">
@@ -36850,19 +36853,19 @@
         <v>829</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H497" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J497" s="2" t="s">
         <v>28</v>
@@ -36877,10 +36880,10 @@
         <v>30</v>
       </c>
       <c r="N497" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O497" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P497" s="2" t="s">
         <v>32</v>
@@ -36900,8 +36903,8 @@
       <c r="U497" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V497" s="1" t="s">
-        <v>33</v>
+      <c r="V497" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="498">
@@ -36918,19 +36921,19 @@
         <v>830</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H498" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J498" s="2" t="s">
         <v>28</v>
@@ -36945,7 +36948,7 @@
         <v>30</v>
       </c>
       <c r="N498" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O498" s="2" t="s">
         <v>32</v>
@@ -36968,8 +36971,8 @@
       <c r="U498" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V498" s="1" t="s">
-        <v>33</v>
+      <c r="V498" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="499">
@@ -36986,19 +36989,19 @@
         <v>831</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H499" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I499" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J499" s="2" t="s">
         <v>28</v>
@@ -37036,8 +37039,8 @@
       <c r="U499" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V499" s="1" t="s">
-        <v>33</v>
+      <c r="V499" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="500">
@@ -37054,19 +37057,19 @@
         <v>832</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G500" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H500" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I500" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J500" s="2" t="s">
         <v>28</v>
@@ -37104,8 +37107,8 @@
       <c r="U500" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V500" s="1" t="s">
-        <v>33</v>
+      <c r="V500" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="501">
@@ -37122,19 +37125,19 @@
         <v>833</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H501" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I501" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J501" s="2" t="s">
         <v>28</v>
@@ -37172,8 +37175,8 @@
       <c r="U501" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V501" s="1" t="s">
-        <v>33</v>
+      <c r="V501" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="502">
@@ -37190,19 +37193,19 @@
         <v>834</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H502" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I502" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J502" s="2" t="s">
         <v>28</v>
@@ -37217,7 +37220,7 @@
         <v>30</v>
       </c>
       <c r="N502" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O502" s="2" t="s">
         <v>32</v>
@@ -37240,8 +37243,8 @@
       <c r="U502" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V502" s="1" t="s">
-        <v>33</v>
+      <c r="V502" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="503">
@@ -37258,19 +37261,19 @@
         <v>434</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H503" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I503" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J503" s="2" t="s">
         <v>28</v>
@@ -37285,7 +37288,7 @@
         <v>30</v>
       </c>
       <c r="N503" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O503" s="2" t="s">
         <v>32</v>
@@ -37308,8 +37311,8 @@
       <c r="U503" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V503" s="1" t="s">
-        <v>33</v>
+      <c r="V503" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="504">
@@ -37326,19 +37329,19 @@
         <v>835</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H504" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J504" s="2" t="s">
         <v>28</v>
@@ -37353,10 +37356,10 @@
         <v>30</v>
       </c>
       <c r="N504" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O504" s="2" t="s">
-        <v>665</v>
+        <v>32</v>
       </c>
       <c r="P504" s="2" t="s">
         <v>32</v>
@@ -37376,8 +37379,8 @@
       <c r="U504" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V504" s="1" t="s">
-        <v>33</v>
+      <c r="V504" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="505">
@@ -37394,19 +37397,19 @@
         <v>836</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H505" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I505" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J505" s="2" t="s">
         <v>28</v>
@@ -37421,10 +37424,10 @@
         <v>30</v>
       </c>
       <c r="N505" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O505" s="2" t="s">
-        <v>459</v>
+        <v>665</v>
       </c>
       <c r="P505" s="2" t="s">
         <v>32</v>
@@ -37444,8 +37447,8 @@
       <c r="U505" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V505" s="1" t="s">
-        <v>33</v>
+      <c r="V505" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="506">
@@ -37462,19 +37465,19 @@
         <v>837</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J506" s="2" t="s">
         <v>28</v>
@@ -37489,10 +37492,10 @@
         <v>30</v>
       </c>
       <c r="N506" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O506" s="2" t="s">
-        <v>223</v>
+        <v>459</v>
       </c>
       <c r="P506" s="2" t="s">
         <v>32</v>
@@ -37512,8 +37515,8 @@
       <c r="U506" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V506" s="1" t="s">
-        <v>33</v>
+      <c r="V506" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="507">
@@ -37530,19 +37533,19 @@
         <v>838</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I507" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J507" s="2" t="s">
         <v>28</v>
@@ -37557,10 +37560,10 @@
         <v>30</v>
       </c>
       <c r="N507" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O507" s="2" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="P507" s="2" t="s">
         <v>32</v>
@@ -37580,8 +37583,8 @@
       <c r="U507" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V507" s="1" t="s">
-        <v>33</v>
+      <c r="V507" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="508">
@@ -37598,19 +37601,19 @@
         <v>839</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J508" s="2" t="s">
         <v>28</v>
@@ -37648,8 +37651,8 @@
       <c r="U508" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V508" s="1" t="s">
-        <v>33</v>
+      <c r="V508" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="509">
@@ -37666,19 +37669,19 @@
         <v>840</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I509" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J509" s="2" t="s">
         <v>28</v>
@@ -37716,8 +37719,8 @@
       <c r="U509" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V509" s="1" t="s">
-        <v>33</v>
+      <c r="V509" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="510">
@@ -37734,19 +37737,19 @@
         <v>841</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H510" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I510" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J510" s="2" t="s">
         <v>28</v>
@@ -37761,7 +37764,7 @@
         <v>30</v>
       </c>
       <c r="N510" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O510" s="2" t="s">
         <v>32</v>
@@ -37802,19 +37805,19 @@
         <v>842</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I511" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J511" s="2" t="s">
         <v>28</v>
@@ -37870,19 +37873,19 @@
         <v>843</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="I512" s="1" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="J512" s="2" t="s">
         <v>28</v>
@@ -37897,10 +37900,10 @@
         <v>30</v>
       </c>
       <c r="N512" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O512" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P512" s="2" t="s">
         <v>32</v>
@@ -37920,8 +37923,8 @@
       <c r="U512" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V512" s="1" t="s">
-        <v>33</v>
+      <c r="V512" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="513">
@@ -37935,22 +37938,22 @@
         <v>22</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>430</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H513" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="I513" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J513" s="2" t="s">
         <v>28</v>
@@ -37988,8 +37991,8 @@
       <c r="U513" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V513" s="1" t="s">
-        <v>33</v>
+      <c r="V513" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="514">
@@ -38006,19 +38009,19 @@
         <v>847</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>430</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H514" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="I514" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J514" s="2" t="s">
         <v>28</v>
@@ -38056,8 +38059,8 @@
       <c r="U514" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V514" s="1" t="s">
-        <v>33</v>
+      <c r="V514" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="515">
@@ -38074,19 +38077,19 @@
         <v>848</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="H515" s="1" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="I515" s="1" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="J515" s="2" t="s">
         <v>28</v>
@@ -38104,7 +38107,7 @@
         <v>32</v>
       </c>
       <c r="O515" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="P515" s="2" t="s">
         <v>32</v>
@@ -38124,8 +38127,8 @@
       <c r="U515" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V515" s="1" t="s">
-        <v>33</v>
+      <c r="V515" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="516">
@@ -38139,22 +38142,22 @@
         <v>22</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J516" s="2" t="s">
         <v>28</v>
@@ -38169,10 +38172,10 @@
         <v>30</v>
       </c>
       <c r="N516" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O516" s="2" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="P516" s="2" t="s">
         <v>32</v>
@@ -38192,8 +38195,8 @@
       <c r="U516" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V516" s="1" t="s">
-        <v>33</v>
+      <c r="V516" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="517">
@@ -38210,19 +38213,19 @@
         <v>431</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J517" s="2" t="s">
         <v>28</v>
@@ -38260,8 +38263,8 @@
       <c r="U517" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V517" s="1" t="s">
-        <v>33</v>
+      <c r="V517" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="518">
@@ -38278,19 +38281,19 @@
         <v>744</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I518" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J518" s="2" t="s">
         <v>28</v>
@@ -38328,8 +38331,8 @@
       <c r="U518" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V518" s="1" t="s">
-        <v>33</v>
+      <c r="V518" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="519">
@@ -38346,19 +38349,19 @@
         <v>852</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I519" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J519" s="2" t="s">
         <v>28</v>
@@ -38396,8 +38399,8 @@
       <c r="U519" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V519" s="1" t="s">
-        <v>33</v>
+      <c r="V519" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="520">
@@ -38414,19 +38417,19 @@
         <v>853</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I520" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J520" s="2" t="s">
         <v>28</v>
@@ -38444,7 +38447,7 @@
         <v>51</v>
       </c>
       <c r="O520" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P520" s="2" t="s">
         <v>32</v>
@@ -38464,8 +38467,8 @@
       <c r="U520" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V520" s="1" t="s">
-        <v>33</v>
+      <c r="V520" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="521">
@@ -38482,19 +38485,19 @@
         <v>854</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J521" s="2" t="s">
         <v>28</v>
@@ -38532,8 +38535,8 @@
       <c r="U521" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V521" s="1" t="s">
-        <v>33</v>
+      <c r="V521" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="522">
@@ -38550,19 +38553,19 @@
         <v>855</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I522" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J522" s="2" t="s">
         <v>28</v>
@@ -38577,7 +38580,7 @@
         <v>30</v>
       </c>
       <c r="N522" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O522" s="2" t="s">
         <v>45</v>
@@ -38600,8 +38603,8 @@
       <c r="U522" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V522" s="1" t="s">
-        <v>33</v>
+      <c r="V522" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="523">
@@ -38618,19 +38621,19 @@
         <v>856</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I523" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J523" s="2" t="s">
         <v>28</v>
@@ -38668,8 +38671,8 @@
       <c r="U523" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V523" s="1" t="s">
-        <v>33</v>
+      <c r="V523" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="524">
@@ -38686,19 +38689,19 @@
         <v>857</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H524" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I524" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J524" s="2" t="s">
         <v>28</v>
@@ -38716,7 +38719,7 @@
         <v>45</v>
       </c>
       <c r="O524" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P524" s="2" t="s">
         <v>32</v>
@@ -38736,8 +38739,8 @@
       <c r="U524" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V524" s="1" t="s">
-        <v>33</v>
+      <c r="V524" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="525">
@@ -38754,19 +38757,19 @@
         <v>858</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H525" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I525" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J525" s="2" t="s">
         <v>28</v>
@@ -38781,11 +38784,11 @@
         <v>30</v>
       </c>
       <c r="N525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O525" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O525" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P525" s="2" t="s">
         <v>32</v>
       </c>
@@ -38804,8 +38807,8 @@
       <c r="U525" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V525" s="1" t="s">
-        <v>33</v>
+      <c r="V525" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="526">
@@ -38822,19 +38825,19 @@
         <v>859</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I526" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>28</v>
@@ -38872,8 +38875,8 @@
       <c r="U526" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V526" s="1" t="s">
-        <v>33</v>
+      <c r="V526" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="527">
@@ -38890,19 +38893,19 @@
         <v>860</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>437</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H527" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I527" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J527" s="2" t="s">
         <v>28</v>
@@ -38917,7 +38920,7 @@
         <v>30</v>
       </c>
       <c r="N527" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O527" s="2" t="s">
         <v>32</v>
@@ -38940,8 +38943,8 @@
       <c r="U527" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V527" s="1" t="s">
-        <v>33</v>
+      <c r="V527" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="528">
@@ -38958,19 +38961,19 @@
         <v>861</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="H528" s="1" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="I528" s="1" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="J528" s="2" t="s">
         <v>28</v>
@@ -38985,10 +38988,10 @@
         <v>30</v>
       </c>
       <c r="N528" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O528" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P528" s="2" t="s">
         <v>32</v>
@@ -39008,8 +39011,8 @@
       <c r="U528" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V528" s="1" t="s">
-        <v>33</v>
+      <c r="V528" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="529">
@@ -39026,7 +39029,7 @@
         <v>739</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>446</v>
@@ -39076,8 +39079,8 @@
       <c r="U529" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V529" s="1" t="s">
-        <v>33</v>
+      <c r="V529" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="530">
@@ -39094,7 +39097,7 @@
         <v>864</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>446</v>
@@ -39124,7 +39127,7 @@
         <v>32</v>
       </c>
       <c r="O530" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="P530" s="2" t="s">
         <v>32</v>
@@ -39144,8 +39147,8 @@
       <c r="U530" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V530" s="1" t="s">
-        <v>33</v>
+      <c r="V530" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="531">
@@ -39162,7 +39165,7 @@
         <v>865</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>446</v>
@@ -39189,10 +39192,10 @@
         <v>30</v>
       </c>
       <c r="N531" s="2" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="O531" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="P531" s="2" t="s">
         <v>32</v>
@@ -39212,8 +39215,8 @@
       <c r="U531" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V531" s="1" t="s">
-        <v>33</v>
+      <c r="V531" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="532">
@@ -39230,7 +39233,7 @@
         <v>866</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>446</v>
@@ -39257,10 +39260,10 @@
         <v>30</v>
       </c>
       <c r="N532" s="2" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="O532" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P532" s="2" t="s">
         <v>32</v>
@@ -39280,8 +39283,8 @@
       <c r="U532" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V532" s="1" t="s">
-        <v>33</v>
+      <c r="V532" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="533">
@@ -39298,7 +39301,7 @@
         <v>867</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>446</v>
@@ -39325,10 +39328,10 @@
         <v>30</v>
       </c>
       <c r="N533" s="2" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="O533" s="2" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="P533" s="2" t="s">
         <v>32</v>
@@ -39348,8 +39351,8 @@
       <c r="U533" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V533" s="1" t="s">
-        <v>33</v>
+      <c r="V533" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="534">
@@ -39366,7 +39369,7 @@
         <v>868</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>446</v>
@@ -39393,10 +39396,10 @@
         <v>30</v>
       </c>
       <c r="N534" s="2" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="O534" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="P534" s="2" t="s">
         <v>32</v>
@@ -39416,8 +39419,8 @@
       <c r="U534" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V534" s="1" t="s">
-        <v>33</v>
+      <c r="V534" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="535">
@@ -39434,7 +39437,7 @@
         <v>869</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>446</v>
@@ -39464,7 +39467,7 @@
         <v>337</v>
       </c>
       <c r="O535" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="P535" s="2" t="s">
         <v>32</v>
@@ -39484,8 +39487,8 @@
       <c r="U535" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V535" s="1" t="s">
-        <v>33</v>
+      <c r="V535" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="536">
@@ -39502,7 +39505,7 @@
         <v>870</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>446</v>
@@ -39532,7 +39535,7 @@
         <v>337</v>
       </c>
       <c r="O536" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="P536" s="2" t="s">
         <v>32</v>
@@ -39552,8 +39555,8 @@
       <c r="U536" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V536" s="1" t="s">
-        <v>33</v>
+      <c r="V536" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="537">
@@ -39570,7 +39573,7 @@
         <v>742</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>446</v>
@@ -39600,7 +39603,7 @@
         <v>337</v>
       </c>
       <c r="O537" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P537" s="2" t="s">
         <v>32</v>
@@ -39638,7 +39641,7 @@
         <v>740</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>446</v>
@@ -39668,7 +39671,7 @@
         <v>337</v>
       </c>
       <c r="O538" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="P538" s="2" t="s">
         <v>32</v>
@@ -39706,19 +39709,19 @@
         <v>871</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="H539" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="I539" s="1" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="J539" s="2" t="s">
         <v>28</v>
@@ -39733,10 +39736,10 @@
         <v>30</v>
       </c>
       <c r="N539" s="2" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="O539" s="2" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="P539" s="2" t="s">
         <v>32</v>
@@ -39756,8 +39759,8 @@
       <c r="U539" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V539" s="1" t="s">
-        <v>33</v>
+      <c r="V539" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="540">
@@ -39771,22 +39774,22 @@
         <v>22</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>449</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H540" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I540" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J540" s="2" t="s">
         <v>28</v>
@@ -39824,8 +39827,8 @@
       <c r="U540" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V540" s="1" t="s">
-        <v>33</v>
+      <c r="V540" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="541">
@@ -39842,19 +39845,19 @@
         <v>876</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>449</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I541" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J541" s="2" t="s">
         <v>28</v>
@@ -39872,7 +39875,7 @@
         <v>32</v>
       </c>
       <c r="O541" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="P541" s="2" t="s">
         <v>32</v>
@@ -39892,8 +39895,8 @@
       <c r="U541" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V541" s="1" t="s">
-        <v>33</v>
+      <c r="V541" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="542">
@@ -39910,19 +39913,19 @@
         <v>877</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>449</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H542" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I542" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J542" s="2" t="s">
         <v>28</v>
@@ -39940,7 +39943,7 @@
         <v>32</v>
       </c>
       <c r="O542" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="P542" s="2" t="s">
         <v>32</v>
@@ -39960,8 +39963,8 @@
       <c r="U542" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V542" s="1" t="s">
-        <v>33</v>
+      <c r="V542" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="543">
@@ -39978,19 +39981,19 @@
         <v>878</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>449</v>
       </c>
       <c r="G543" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H543" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I543" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J543" s="2" t="s">
         <v>28</v>
@@ -40028,8 +40031,8 @@
       <c r="U543" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V543" s="1" t="s">
-        <v>33</v>
+      <c r="V543" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="544">
@@ -40046,19 +40049,19 @@
         <v>879</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F544" s="2" t="s">
         <v>449</v>
       </c>
       <c r="G544" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H544" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I544" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J544" s="2" t="s">
         <v>28</v>
@@ -40096,8 +40099,8 @@
       <c r="U544" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V544" s="1" t="s">
-        <v>33</v>
+      <c r="V544" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="545">
@@ -40114,19 +40117,19 @@
         <v>880</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G545" s="1" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="H545" s="1" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="I545" s="1" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="J545" s="2" t="s">
         <v>28</v>
@@ -40141,11 +40144,11 @@
         <v>30</v>
       </c>
       <c r="N545" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O545" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O545" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P545" s="2" t="s">
         <v>32</v>
       </c>
@@ -40164,8 +40167,8 @@
       <c r="U545" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V545" s="1" t="s">
-        <v>33</v>
+      <c r="V545" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="546">
@@ -40179,22 +40182,22 @@
         <v>22</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>451</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J546" s="2" t="s">
         <v>28</v>
@@ -40232,8 +40235,8 @@
       <c r="U546" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V546" s="1" t="s">
-        <v>33</v>
+      <c r="V546" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="547">
@@ -40250,19 +40253,19 @@
         <v>885</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>451</v>
       </c>
       <c r="G547" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J547" s="2" t="s">
         <v>28</v>
@@ -40300,8 +40303,8 @@
       <c r="U547" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V547" s="1" t="s">
-        <v>33</v>
+      <c r="V547" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="548">
@@ -40318,19 +40321,19 @@
         <v>886</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>451</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J548" s="2" t="s">
         <v>28</v>
@@ -40345,7 +40348,7 @@
         <v>30</v>
       </c>
       <c r="N548" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O548" s="2" t="s">
         <v>32</v>
@@ -40360,7 +40363,7 @@
         <v>32</v>
       </c>
       <c r="S548" s="2" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="T548" s="2" t="s">
         <v>32</v>
@@ -40368,8 +40371,8 @@
       <c r="U548" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V548" s="1" t="s">
-        <v>33</v>
+      <c r="V548" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="549">
@@ -40386,19 +40389,19 @@
         <v>887</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>451</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I549" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J549" s="2" t="s">
         <v>28</v>
@@ -40436,8 +40439,8 @@
       <c r="U549" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V549" s="1" t="s">
-        <v>33</v>
+      <c r="V549" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="550">
@@ -40454,19 +40457,19 @@
         <v>485</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F550" s="2" t="s">
         <v>451</v>
       </c>
       <c r="G550" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I550" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J550" s="2" t="s">
         <v>28</v>
@@ -40496,7 +40499,7 @@
         <v>32</v>
       </c>
       <c r="S550" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="T550" s="2" t="s">
         <v>32</v>
@@ -40522,19 +40525,19 @@
         <v>888</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F551" s="2" t="s">
         <v>451</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I551" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J551" s="2" t="s">
         <v>28</v>
@@ -40564,7 +40567,7 @@
         <v>32</v>
       </c>
       <c r="S551" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="T551" s="2" t="s">
         <v>32</v>
@@ -40590,19 +40593,19 @@
         <v>889</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>510</v>
+        <v>451</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="I552" s="1" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="J552" s="2" t="s">
         <v>28</v>
@@ -40617,7 +40620,7 @@
         <v>30</v>
       </c>
       <c r="N552" s="2" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="O552" s="2" t="s">
         <v>32</v>
@@ -40632,7 +40635,7 @@
         <v>32</v>
       </c>
       <c r="S552" s="2" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="T552" s="2" t="s">
         <v>32</v>
@@ -40640,8 +40643,8 @@
       <c r="U552" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V552" s="1" t="s">
-        <v>33</v>
+      <c r="V552" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="553">
@@ -40655,22 +40658,22 @@
         <v>22</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>510</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H553" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I553" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J553" s="2" t="s">
         <v>28</v>
@@ -40685,7 +40688,7 @@
         <v>30</v>
       </c>
       <c r="N553" s="2" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="O553" s="2" t="s">
         <v>32</v>
@@ -40708,8 +40711,8 @@
       <c r="U553" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V553" s="1" t="s">
-        <v>33</v>
+      <c r="V553" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="554">
@@ -40726,19 +40729,19 @@
         <v>894</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>510</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H554" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I554" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J554" s="2" t="s">
         <v>28</v>
@@ -40753,7 +40756,7 @@
         <v>30</v>
       </c>
       <c r="N554" s="2" t="s">
-        <v>432</v>
+        <v>242</v>
       </c>
       <c r="O554" s="2" t="s">
         <v>32</v>
@@ -40776,8 +40779,8 @@
       <c r="U554" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V554" s="1" t="s">
-        <v>33</v>
+      <c r="V554" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="555">
@@ -40794,19 +40797,19 @@
         <v>895</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>510</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H555" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I555" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J555" s="2" t="s">
         <v>28</v>
@@ -40821,7 +40824,7 @@
         <v>30</v>
       </c>
       <c r="N555" s="2" t="s">
-        <v>135</v>
+        <v>432</v>
       </c>
       <c r="O555" s="2" t="s">
         <v>32</v>
@@ -40844,8 +40847,8 @@
       <c r="U555" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V555" s="1" t="s">
-        <v>33</v>
+      <c r="V555" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="556">
@@ -40862,19 +40865,19 @@
         <v>896</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>510</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H556" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I556" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J556" s="2" t="s">
         <v>28</v>
@@ -40889,13 +40892,13 @@
         <v>30</v>
       </c>
       <c r="N556" s="2" t="s">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="O556" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P556" s="2" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="Q556" s="2" t="s">
         <v>32</v>
@@ -40912,8 +40915,8 @@
       <c r="U556" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V556" s="1" t="s">
-        <v>33</v>
+      <c r="V556" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="557">
@@ -40927,22 +40930,22 @@
         <v>22</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F557" s="2" t="s">
         <v>510</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H557" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I557" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J557" s="2" t="s">
         <v>28</v>
@@ -40957,13 +40960,13 @@
         <v>30</v>
       </c>
       <c r="N557" s="2" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="O557" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P557" s="2" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="Q557" s="2" t="s">
         <v>32</v>
@@ -40980,8 +40983,8 @@
       <c r="U557" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V557" s="1" t="s">
-        <v>33</v>
+      <c r="V557" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="558">
@@ -40998,19 +41001,19 @@
         <v>897</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>510</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H558" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I558" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J558" s="2" t="s">
         <v>28</v>
@@ -41025,7 +41028,7 @@
         <v>30</v>
       </c>
       <c r="N558" s="2" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="O558" s="2" t="s">
         <v>32</v>
@@ -41048,8 +41051,8 @@
       <c r="U558" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V558" s="1" t="s">
-        <v>33</v>
+      <c r="V558" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="559">
@@ -41066,19 +41069,19 @@
         <v>898</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>510</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H559" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I559" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J559" s="2" t="s">
         <v>28</v>
@@ -41093,7 +41096,7 @@
         <v>30</v>
       </c>
       <c r="N559" s="2" t="s">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="O559" s="2" t="s">
         <v>32</v>
@@ -41116,8 +41119,8 @@
       <c r="U559" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V559" s="1" t="s">
-        <v>33</v>
+      <c r="V559" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="560">
@@ -41134,58 +41137,126 @@
         <v>899</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F560" s="2" t="s">
         <v>510</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H560" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="J560" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K560" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L560" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M560" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N560" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O560" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P560" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q560" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R560" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S560" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T560" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U560" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V560" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G561" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="I560" s="1" t="s">
+      <c r="H561" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="J560" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K560" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L560" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M560" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N560" s="2" t="s">
+      <c r="I561" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="J561" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L561" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M561" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N561" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="O560" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P560" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q560" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R560" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S560" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T560" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U560" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V560" s="1" t="s">
-        <v>33</v>
+      <c r="O561" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P561" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q561" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R561" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S561" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T561" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U561" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V561" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-PAK.xlsx
+++ b/Excel-XLSX/UN-PAK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="926">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>C0D61s</t>
+    <t>PR4eI5</t>
   </si>
   <si>
     <t>1979</t>
@@ -2727,13 +2727,16 @@
     <t>2024</t>
   </si>
   <si>
-    <t>1585772</t>
-  </si>
-  <si>
-    <t>165695</t>
-  </si>
-  <si>
-    <t>34548</t>
+    <t>1559964</t>
+  </si>
+  <si>
+    <t>198610</t>
+  </si>
+  <si>
+    <t>126812</t>
+  </si>
+  <si>
+    <t>798348</t>
   </si>
   <si>
     <t>562</t>
@@ -2758,6 +2761,12 @@
   </si>
   <si>
     <t>569</t>
+  </si>
+  <si>
+    <t>3439</t>
+  </si>
+  <si>
+    <t>1456000</t>
   </si>
   <si>
     <t>571</t>
@@ -41384,7 +41393,7 @@
         <v>32</v>
       </c>
       <c r="T562" s="2" t="s">
-        <v>159</v>
+        <v>906</v>
       </c>
       <c r="U562" s="1" t="s">
         <v>33</v>
@@ -41404,7 +41413,7 @@
         <v>22</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>902</v>
@@ -41472,7 +41481,7 @@
         <v>22</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E564" s="2" t="s">
         <v>902</v>
@@ -41540,7 +41549,7 @@
         <v>22</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>902</v>
@@ -41573,7 +41582,7 @@
         <v>95</v>
       </c>
       <c r="O565" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P565" s="2" t="s">
         <v>32</v>
@@ -41608,7 +41617,7 @@
         <v>22</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>902</v>
@@ -41676,7 +41685,7 @@
         <v>22</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E567" s="2" t="s">
         <v>902</v>
@@ -41709,7 +41718,7 @@
         <v>143</v>
       </c>
       <c r="O567" s="2" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="P567" s="2" t="s">
         <v>32</v>
@@ -41744,7 +41753,7 @@
         <v>22</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E568" s="2" t="s">
         <v>902</v>
@@ -41812,7 +41821,7 @@
         <v>22</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E569" s="2" t="s">
         <v>902</v>
@@ -41880,7 +41889,7 @@
         <v>22</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E570" s="2" t="s">
         <v>902</v>
@@ -41910,7 +41919,7 @@
         <v>30</v>
       </c>
       <c r="N570" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O570" s="2" t="s">
         <v>126</v>
@@ -41987,7 +41996,7 @@
         <v>32</v>
       </c>
       <c r="Q571" s="2" t="s">
-        <v>32</v>
+        <v>915</v>
       </c>
       <c r="R571" s="2" t="s">
         <v>32</v>
@@ -41996,13 +42005,13 @@
         <v>32</v>
       </c>
       <c r="T571" s="2" t="s">
-        <v>254</v>
+        <v>547</v>
       </c>
       <c r="U571" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V571" s="2" t="s">
-        <v>892</v>
+        <v>916</v>
       </c>
     </row>
     <row r="572">
@@ -42016,7 +42025,7 @@
         <v>22</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E572" s="2" t="s">
         <v>902</v>
@@ -42084,7 +42093,7 @@
         <v>22</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E573" s="2" t="s">
         <v>902</v>
@@ -42117,7 +42126,7 @@
         <v>419</v>
       </c>
       <c r="O573" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="P573" s="2" t="s">
         <v>32</v>
@@ -42152,7 +42161,7 @@
         <v>22</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>902</v>
@@ -42197,7 +42206,7 @@
         <v>32</v>
       </c>
       <c r="S574" s="2" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="T574" s="2" t="s">
         <v>32</v>
@@ -42220,7 +42229,7 @@
         <v>22</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="E575" s="2" t="s">
         <v>902</v>
@@ -42253,7 +42262,7 @@
         <v>32</v>
       </c>
       <c r="O575" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="P575" s="2" t="s">
         <v>32</v>
@@ -42288,7 +42297,7 @@
         <v>22</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E576" s="2" t="s">
         <v>902</v>
@@ -42356,7 +42365,7 @@
         <v>22</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>902</v>
@@ -42424,7 +42433,7 @@
         <v>22</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>902</v>
@@ -42457,7 +42466,7 @@
         <v>51</v>
       </c>
       <c r="O578" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="P578" s="2" t="s">
         <v>32</v>
@@ -42492,7 +42501,7 @@
         <v>22</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>902</v>
@@ -42560,7 +42569,7 @@
         <v>22</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>902</v>
@@ -42593,7 +42602,7 @@
         <v>352</v>
       </c>
       <c r="O580" s="2" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="P580" s="2" t="s">
         <v>32</v>
